--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2802,28 +2802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.3787339187433</v>
+        <v>249.6846838000787</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.3731267554793</v>
+        <v>341.6295996859352</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.9424283424294</v>
+        <v>309.024950172166</v>
       </c>
       <c r="AD2" t="n">
-        <v>225378.7339187433</v>
+        <v>249684.6838000788</v>
       </c>
       <c r="AE2" t="n">
-        <v>308373.1267554793</v>
+        <v>341629.5996859352</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.768486531319331e-06</v>
+        <v>6.972686727091251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.032291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>278942.4283424293</v>
+        <v>309024.950172166</v>
       </c>
     </row>
     <row r="3">
@@ -2908,28 +2908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.90748413137919</v>
+        <v>105.0178333990366</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.1201185774223</v>
+        <v>143.6900327163256</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.9879528746337</v>
+        <v>129.9764576641459</v>
       </c>
       <c r="AD3" t="n">
-        <v>92907.4841313792</v>
+        <v>105017.8333990366</v>
       </c>
       <c r="AE3" t="n">
-        <v>127120.1185774223</v>
+        <v>143690.0327163257</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.771517471517861e-06</v>
+        <v>1.252908020329028e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.24375</v>
       </c>
       <c r="AH3" t="n">
-        <v>114987.9528746337</v>
+        <v>129976.4576641459</v>
       </c>
     </row>
     <row r="4">
@@ -3014,28 +3014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.48110090494208</v>
+        <v>79.67670151862009</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.3306193141685</v>
+        <v>109.0171781057211</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.51871459368485</v>
+        <v>98.61273163390931</v>
       </c>
       <c r="AD4" t="n">
-        <v>67481.10090494208</v>
+        <v>79676.70151862009</v>
       </c>
       <c r="AE4" t="n">
-        <v>92330.61931416851</v>
+        <v>109017.1781057211</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.817362932304029e-06</v>
+        <v>1.446416812317714e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.94375</v>
       </c>
       <c r="AH4" t="n">
-        <v>83518.71459368485</v>
+        <v>98612.73163390931</v>
       </c>
     </row>
     <row r="5">
@@ -3120,28 +3120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.0769467325193</v>
+        <v>74.27254734619733</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.93641716100772</v>
+        <v>101.6229759525603</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.83020471619152</v>
+        <v>91.92422175641595</v>
       </c>
       <c r="AD5" t="n">
-        <v>62076.9467325193</v>
+        <v>74272.54734619733</v>
       </c>
       <c r="AE5" t="n">
-        <v>84936.41716100773</v>
+        <v>101622.9759525603</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.349841092698716e-06</v>
+        <v>1.544939213037298e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.819791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>76830.20471619151</v>
+        <v>91924.22175641595</v>
       </c>
     </row>
     <row r="6">
@@ -3226,28 +3226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.61639064836988</v>
+        <v>70.8119912620479</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.20153165771727</v>
+        <v>96.88809044926982</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.54721003988004</v>
+        <v>87.64122708010449</v>
       </c>
       <c r="AD6" t="n">
-        <v>58616.39064836988</v>
+        <v>70811.9912620479</v>
       </c>
       <c r="AE6" t="n">
-        <v>80201.53165771726</v>
+        <v>96888.09044926983</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.690918884206326e-06</v>
+        <v>1.608047534374939e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.748958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>72547.21003988004</v>
+        <v>87641.22708010448</v>
       </c>
     </row>
     <row r="7">
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.06675961401817</v>
+        <v>68.26236022769619</v>
       </c>
       <c r="AB7" t="n">
-        <v>76.71301399473634</v>
+        <v>93.39957278628891</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.39163160648762</v>
+        <v>84.48564864671206</v>
       </c>
       <c r="AD7" t="n">
-        <v>56066.75961401817</v>
+        <v>68262.36022769619</v>
       </c>
       <c r="AE7" t="n">
-        <v>76713.01399473635</v>
+        <v>93399.57278628892</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.917769168977215e-06</v>
+        <v>1.650020776325337e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.704166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>69391.63160648762</v>
+        <v>84485.64864671207</v>
       </c>
     </row>
     <row r="8">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>54.24202941753744</v>
+        <v>66.43763003121545</v>
       </c>
       <c r="AB8" t="n">
-        <v>74.21633763849789</v>
+        <v>90.90289643005046</v>
       </c>
       <c r="AC8" t="n">
-        <v>67.13323453758049</v>
+        <v>82.22725157780494</v>
       </c>
       <c r="AD8" t="n">
-        <v>54242.02941753744</v>
+        <v>66437.63003121545</v>
       </c>
       <c r="AE8" t="n">
-        <v>74216.33763849789</v>
+        <v>90902.89643005046</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.073573737552973e-06</v>
+        <v>1.678848700700273e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="AH8" t="n">
-        <v>67133.23453758049</v>
+        <v>82227.25157780494</v>
       </c>
     </row>
     <row r="9">
@@ -3544,28 +3544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>54.37333334785581</v>
+        <v>66.56893396153383</v>
       </c>
       <c r="AB9" t="n">
-        <v>74.39599346867996</v>
+        <v>91.08255226023253</v>
       </c>
       <c r="AC9" t="n">
-        <v>67.29574426747858</v>
+        <v>82.38976130770304</v>
       </c>
       <c r="AD9" t="n">
-        <v>54373.33334785581</v>
+        <v>66568.93396153382</v>
       </c>
       <c r="AE9" t="n">
-        <v>74395.99346867997</v>
+        <v>91082.55226023254</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.068176013735276e-06</v>
+        <v>1.677849980473801e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>1.676041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>67295.74426747859</v>
+        <v>82389.76130770304</v>
       </c>
     </row>
   </sheetData>
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.5048410040368</v>
+        <v>158.2686426453049</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.4543867990594</v>
+        <v>216.5501391869349</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.3233014625129</v>
+        <v>195.882897833025</v>
       </c>
       <c r="AD2" t="n">
-        <v>146504.8410040368</v>
+        <v>158268.6426453049</v>
       </c>
       <c r="AE2" t="n">
-        <v>200454.3867990594</v>
+        <v>216550.1391869349</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898110196785304e-06</v>
+        <v>9.336553972168195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.209375</v>
       </c>
       <c r="AH2" t="n">
-        <v>181323.3014625129</v>
+        <v>195882.897833025</v>
       </c>
     </row>
     <row r="3">
@@ -3947,28 +3947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.57283774068139</v>
+        <v>90.25129852737788</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.5068229857132</v>
+        <v>123.485808251391</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.24652268675781</v>
+        <v>111.7004960253311</v>
       </c>
       <c r="AD3" t="n">
-        <v>78572.8377406814</v>
+        <v>90251.29852737789</v>
       </c>
       <c r="AE3" t="n">
-        <v>107506.8229857132</v>
+        <v>123485.808251391</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.672086149678781e-06</v>
+        <v>1.46241802527457e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.048958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>97246.52268675782</v>
+        <v>111700.4960253311</v>
       </c>
     </row>
     <row r="4">
@@ -4053,28 +4053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.73907905212793</v>
+        <v>69.50279118484502</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.00115522748362</v>
+        <v>95.09678514581068</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.4613958514086</v>
+        <v>86.02088144069413</v>
       </c>
       <c r="AD4" t="n">
-        <v>57739.07905212793</v>
+        <v>69502.79118484502</v>
       </c>
       <c r="AE4" t="n">
-        <v>79001.15522748363</v>
+        <v>95096.78514581069</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.608214370983292e-06</v>
+        <v>1.640858511746592e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.826041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>71461.3958514086</v>
+        <v>86020.88144069412</v>
       </c>
     </row>
     <row r="5">
@@ -4159,28 +4159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.35272838033143</v>
+        <v>65.1164405130485</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.99955672620042</v>
+        <v>89.09518664452747</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.03258148778954</v>
+        <v>80.59206707707507</v>
       </c>
       <c r="AD5" t="n">
-        <v>53352.72838033143</v>
+        <v>65116.4405130485</v>
       </c>
       <c r="AE5" t="n">
-        <v>72999.55672620042</v>
+        <v>89095.18664452748</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.100198572410459e-06</v>
+        <v>1.734638293448799e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.727083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>66032.58148778955</v>
+        <v>80592.06707707507</v>
       </c>
     </row>
     <row r="6">
@@ -4265,28 +4265,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>50.89675811218303</v>
+        <v>62.6604702449001</v>
       </c>
       <c r="AB6" t="n">
-        <v>69.63918985556018</v>
+        <v>85.73481977388725</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.99292331497763</v>
+        <v>77.55240890426316</v>
       </c>
       <c r="AD6" t="n">
-        <v>50896.75811218303</v>
+        <v>62660.47024490011</v>
       </c>
       <c r="AE6" t="n">
-        <v>69639.18985556018</v>
+        <v>85734.81977388725</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.362489536238806e-06</v>
+        <v>1.784634999153841e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.679166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>62992.92331497763</v>
+        <v>77552.40890426315</v>
       </c>
     </row>
     <row r="7">
@@ -4371,28 +4371,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>50.96446002373742</v>
+        <v>62.7281721564545</v>
       </c>
       <c r="AB7" t="n">
-        <v>69.73182259774639</v>
+        <v>85.82745251607346</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.07671531826049</v>
+        <v>77.63620090754604</v>
       </c>
       <c r="AD7" t="n">
-        <v>50964.46002373743</v>
+        <v>62728.1721564545</v>
       </c>
       <c r="AE7" t="n">
-        <v>69731.82259774639</v>
+        <v>85827.45251607346</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.348454404112202e-06</v>
+        <v>1.781959686362949e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.68125</v>
       </c>
       <c r="AH7" t="n">
-        <v>63076.71531826049</v>
+        <v>77636.20090754604</v>
       </c>
     </row>
   </sheetData>
@@ -4668,28 +4668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.56920200470319</v>
+        <v>71.94739314987335</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.2416984242936</v>
+        <v>98.44159740258794</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.20178896066525</v>
+        <v>89.0464695101591</v>
       </c>
       <c r="AD2" t="n">
-        <v>61569.20200470318</v>
+        <v>71947.39314987334</v>
       </c>
       <c r="AE2" t="n">
-        <v>84241.6984242936</v>
+        <v>98441.59740258794</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.575581256774105e-06</v>
+        <v>1.826374382215088e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.045833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76201.78896066526</v>
+        <v>89046.46951015911</v>
       </c>
     </row>
     <row r="3">
@@ -4774,28 +4774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.3885887615772</v>
+        <v>52.85203125276794</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.99793719612651</v>
+        <v>72.3144808270701</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.46269547075588</v>
+        <v>65.41288827096194</v>
       </c>
       <c r="AD3" t="n">
-        <v>42388.58876157719</v>
+        <v>52852.03125276793</v>
       </c>
       <c r="AE3" t="n">
-        <v>57997.93719612651</v>
+        <v>72314.4808270701</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.974308338675875e-06</v>
+        <v>2.124266645562008e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.758333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>52462.69547075588</v>
+        <v>65412.88827096195</v>
       </c>
     </row>
   </sheetData>
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.21312766972636</v>
+        <v>91.09967236990597</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.7511400311159</v>
+        <v>124.6465907703498</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.27664526326672</v>
+        <v>112.7504950898493</v>
       </c>
       <c r="AD2" t="n">
-        <v>80213.12766972637</v>
+        <v>91099.67236990598</v>
       </c>
       <c r="AE2" t="n">
-        <v>109751.1400311159</v>
+        <v>124646.5907703498</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.061124945999213e-06</v>
+        <v>1.433652489484337e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.377083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99276.64526326672</v>
+        <v>112750.4950898493</v>
       </c>
     </row>
     <row r="3">
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.62617738092168</v>
+        <v>59.59797342712188</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.53248112809781</v>
+        <v>81.54457651998102</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.1827145081702</v>
+        <v>73.76207658546505</v>
       </c>
       <c r="AD3" t="n">
-        <v>48626.17738092168</v>
+        <v>59597.97342712188</v>
       </c>
       <c r="AE3" t="n">
-        <v>66532.48112809782</v>
+        <v>81544.57651998103</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.349586726923666e-06</v>
+        <v>1.898289350381553e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.794791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>60182.7145081702</v>
+        <v>73762.07658546505</v>
       </c>
     </row>
     <row r="4">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.24441259247092</v>
+        <v>56.21620863867111</v>
       </c>
       <c r="AB4" t="n">
-        <v>61.90540135160883</v>
+        <v>76.91749674349202</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.9972367314006</v>
+        <v>69.57659880869545</v>
       </c>
       <c r="AD4" t="n">
-        <v>45244.41259247092</v>
+        <v>56216.20863867111</v>
       </c>
       <c r="AE4" t="n">
-        <v>61905.40135160883</v>
+        <v>76917.49674349203</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.837888568386675e-06</v>
+        <v>1.997431506339277e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.70625</v>
       </c>
       <c r="AH4" t="n">
-        <v>55997.2367314006</v>
+        <v>69576.59880869545</v>
       </c>
     </row>
   </sheetData>
@@ -5580,28 +5580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.83575032523702</v>
+        <v>50.88223862223365</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.87327514097335</v>
+        <v>69.61932364885675</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.54080818026225</v>
+        <v>62.97495311115956</v>
       </c>
       <c r="AD2" t="n">
-        <v>40835.75032523702</v>
+        <v>50882.23862223365</v>
       </c>
       <c r="AE2" t="n">
-        <v>55873.27514097335</v>
+        <v>69619.32364885675</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800012269150273e-06</v>
+        <v>2.18227131453984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>50540.80818026225</v>
+        <v>62974.95311115956</v>
       </c>
     </row>
     <row r="3">
@@ -5686,28 +5686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.46776684857186</v>
+        <v>50.51425514556841</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.36978391391726</v>
+        <v>69.1158324217984</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.08536944926053</v>
+        <v>62.51951438015713</v>
       </c>
       <c r="AD3" t="n">
-        <v>40467.76684857185</v>
+        <v>50514.25514556842</v>
       </c>
       <c r="AE3" t="n">
-        <v>55369.78391391726</v>
+        <v>69115.8324217984</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.910022579454835e-06</v>
+        <v>2.206768461878829e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.838541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>50085.36944926053</v>
+        <v>62519.51438015713</v>
       </c>
     </row>
   </sheetData>
@@ -5983,28 +5983,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.7719356442957</v>
+        <v>183.3558040988869</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.6070109887596</v>
+        <v>250.8755002551601</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.7434646769219</v>
+        <v>226.9322946168567</v>
       </c>
       <c r="AD2" t="n">
-        <v>159771.9356442957</v>
+        <v>183355.8040988869</v>
       </c>
       <c r="AE2" t="n">
-        <v>218607.0109887595</v>
+        <v>250875.5002551602</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.600457510359713e-06</v>
+        <v>8.698377919631174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.386458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>197743.4646769219</v>
+        <v>226932.2946168567</v>
       </c>
     </row>
     <row r="3">
@@ -6089,28 +6089,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.26417105331269</v>
+        <v>94.05615003488379</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.5574680741852</v>
+        <v>128.6917739421597</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.8151412966125</v>
+        <v>116.4096116571932</v>
       </c>
       <c r="AD3" t="n">
-        <v>82264.17105331269</v>
+        <v>94056.15003488379</v>
       </c>
       <c r="AE3" t="n">
-        <v>112557.4680741852</v>
+        <v>128691.7739421597</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.40619817662591e-06</v>
+        <v>1.400337043498491e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.103125</v>
       </c>
       <c r="AH3" t="n">
-        <v>101815.1412966125</v>
+        <v>116409.6116571932</v>
       </c>
     </row>
     <row r="4">
@@ -6195,28 +6195,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.18172649359284</v>
+        <v>72.05895682118452</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.34329321889389</v>
+        <v>98.59424373951764</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.48456488363986</v>
+        <v>89.18454749493274</v>
       </c>
       <c r="AD4" t="n">
-        <v>60181.72649359284</v>
+        <v>72058.95682118452</v>
       </c>
       <c r="AE4" t="n">
-        <v>82343.29321889389</v>
+        <v>98594.24373951764</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.398078352461592e-06</v>
+        <v>1.587878143508224e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.855208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>74484.56488363986</v>
+        <v>89184.54749493275</v>
       </c>
     </row>
     <row r="5">
@@ -6301,28 +6301,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.63510076277579</v>
+        <v>67.51233109036747</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.12239931102231</v>
+        <v>92.37334983164607</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.85738435925414</v>
+        <v>83.55736697054704</v>
       </c>
       <c r="AD5" t="n">
-        <v>55635.10076277579</v>
+        <v>67512.33109036747</v>
       </c>
       <c r="AE5" t="n">
-        <v>76122.39931102231</v>
+        <v>92373.34983164606</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.890279446954239e-06</v>
+        <v>1.680941738220533e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.752083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>68857.38435925414</v>
+        <v>83557.36697054704</v>
       </c>
     </row>
     <row r="6">
@@ -6407,28 +6407,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.55568964531533</v>
+        <v>64.43291997290702</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.90901316608461</v>
+        <v>88.15996368670837</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.04611787446335</v>
+        <v>79.74610048575623</v>
       </c>
       <c r="AD6" t="n">
-        <v>52555.68964531533</v>
+        <v>64432.91997290701</v>
       </c>
       <c r="AE6" t="n">
-        <v>71909.01316608461</v>
+        <v>88159.96368670836</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.191044078076911e-06</v>
+        <v>1.737809221953882e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.694791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>65046.11787446335</v>
+        <v>79746.10048575624</v>
       </c>
     </row>
     <row r="7">
@@ -6513,28 +6513,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>51.70848870944438</v>
+        <v>63.58571903703606</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.74983546975913</v>
+        <v>87.00078599038288</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.9975704705587</v>
+        <v>78.69755308185159</v>
       </c>
       <c r="AD7" t="n">
-        <v>51708.48870944438</v>
+        <v>63585.71903703606</v>
       </c>
       <c r="AE7" t="n">
-        <v>70749.83546975913</v>
+        <v>87000.78599038288</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.278087845015446e-06</v>
+        <v>1.754267141164628e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.679166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>63997.5704705587</v>
+        <v>78697.5530818516</v>
       </c>
     </row>
   </sheetData>
@@ -6810,28 +6810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.31738479644878</v>
+        <v>49.11697378125045</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.7957804389358</v>
+        <v>67.20401041543631</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.66158665679885</v>
+        <v>60.79015398282261</v>
       </c>
       <c r="AD2" t="n">
-        <v>39317.38479644878</v>
+        <v>49116.97378125045</v>
       </c>
       <c r="AE2" t="n">
-        <v>53795.7804389358</v>
+        <v>67204.01041543632</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.743670694961352e-06</v>
+        <v>2.233801544052645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.913541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>48661.58665679886</v>
+        <v>60790.15398282261</v>
       </c>
     </row>
   </sheetData>
@@ -7107,28 +7107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.1624591072191</v>
+        <v>125.8676995859611</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.1514277569254</v>
+        <v>172.2177394644392</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.6801335991155</v>
+        <v>155.7815201191165</v>
       </c>
       <c r="AD2" t="n">
-        <v>103162.4591072191</v>
+        <v>125867.6995859611</v>
       </c>
       <c r="AE2" t="n">
-        <v>141151.4277569253</v>
+        <v>172217.7394644392</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.891190937856725e-06</v>
+        <v>1.154665282232817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.748958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>127680.1335991155</v>
+        <v>155781.5201191165</v>
       </c>
     </row>
     <row r="3">
@@ -7213,28 +7213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.72363354057148</v>
+        <v>69.11892420722832</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.9800219971642</v>
+        <v>94.57156141201996</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.44227954693019</v>
+        <v>85.54578432290006</v>
       </c>
       <c r="AD3" t="n">
-        <v>57723.63354057148</v>
+        <v>69118.92420722832</v>
       </c>
       <c r="AE3" t="n">
-        <v>78980.02199716421</v>
+        <v>94571.56141201996</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.411055811666533e-06</v>
+        <v>1.648555315062869e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.926041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>71442.27954693019</v>
+        <v>85545.78432290006</v>
       </c>
     </row>
     <row r="4">
@@ -7319,28 +7319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.44257245215694</v>
+        <v>61.83786311881376</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.01775299825563</v>
+        <v>84.60929241311136</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.4307955191419</v>
+        <v>76.53430029511178</v>
       </c>
       <c r="AD4" t="n">
-        <v>50442.57245215694</v>
+        <v>61837.86311881377</v>
       </c>
       <c r="AE4" t="n">
-        <v>69017.75299825563</v>
+        <v>84609.29241311137</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.330310478701189e-06</v>
+        <v>1.828727959397763e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.735416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>62430.7955191419</v>
+        <v>76534.30029511178</v>
       </c>
     </row>
     <row r="5">
@@ -7425,28 +7425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.95259097320558</v>
+        <v>59.34788163986243</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.61085048852608</v>
+        <v>81.20238990338183</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.34904300332217</v>
+        <v>73.45254777929205</v>
       </c>
       <c r="AD5" t="n">
-        <v>47952.59097320558</v>
+        <v>59347.88163986243</v>
       </c>
       <c r="AE5" t="n">
-        <v>65610.85048852608</v>
+        <v>81202.38990338183</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.626829194877624e-06</v>
+        <v>1.88684521798143e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.682291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>59349.04300332216</v>
+        <v>73452.54777929204</v>
       </c>
     </row>
     <row r="6">
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.10460038920396</v>
+        <v>59.49989105586081</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.81883647767711</v>
+        <v>81.41037589253284</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.53717910157885</v>
+        <v>73.64068387754872</v>
       </c>
       <c r="AD6" t="n">
-        <v>48104.60038920396</v>
+        <v>59499.8910558608</v>
       </c>
       <c r="AE6" t="n">
-        <v>65818.8364776771</v>
+        <v>81410.37589253284</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.626207236374893e-06</v>
+        <v>1.886723314974437e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.682291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>59537.17910157885</v>
+        <v>73640.68387754873</v>
       </c>
     </row>
   </sheetData>
@@ -7828,28 +7828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.1835332282851</v>
+        <v>145.8295000028406</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.5958299225492</v>
+        <v>199.530355447281</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.0737015931583</v>
+        <v>180.4874583660619</v>
       </c>
       <c r="AD2" t="n">
-        <v>134183.5332282851</v>
+        <v>145829.5000028406</v>
       </c>
       <c r="AE2" t="n">
-        <v>183595.8299225492</v>
+        <v>199530.355447281</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.227393915612158e-06</v>
+        <v>1.005072638839151e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.035416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>166073.7015931583</v>
+        <v>180487.4583660619</v>
       </c>
     </row>
     <row r="3">
@@ -7934,28 +7934,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.57961925381136</v>
+        <v>87.14024517379521</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.4113694004998</v>
+        <v>119.229127803034</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.54193344371063</v>
+        <v>107.8500671846754</v>
       </c>
       <c r="AD3" t="n">
-        <v>75579.61925381135</v>
+        <v>87140.24517379521</v>
       </c>
       <c r="AE3" t="n">
-        <v>103411.3694004998</v>
+        <v>119229.127803034</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.891670693305834e-06</v>
+        <v>1.51733395581336e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.010416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93541.93344371063</v>
+        <v>107850.0671846754</v>
       </c>
     </row>
     <row r="4">
@@ -8040,28 +8040,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.4752395224423</v>
+        <v>67.12111678844673</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.90367010941797</v>
+        <v>91.83807316460143</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.65953036566248</v>
+        <v>83.07317635733946</v>
       </c>
       <c r="AD4" t="n">
-        <v>55475.2395224423</v>
+        <v>67121.11678844673</v>
       </c>
       <c r="AE4" t="n">
-        <v>75903.67010941797</v>
+        <v>91838.07316460143</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.820236965037477e-06</v>
+        <v>1.695869678992558e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.798958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>68659.53036566247</v>
+        <v>83073.17635733946</v>
       </c>
     </row>
     <row r="5">
@@ -8146,28 +8146,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.09713505338581</v>
+        <v>62.74301231939022</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.91335442652044</v>
+        <v>85.84775748170391</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.24092200407791</v>
+        <v>77.65456799575489</v>
       </c>
       <c r="AD5" t="n">
-        <v>51097.13505338581</v>
+        <v>62743.01231939023</v>
       </c>
       <c r="AE5" t="n">
-        <v>69913.35442652044</v>
+        <v>85847.75748170391</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.325121070782949e-06</v>
+        <v>1.792943901571041e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.702083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>63240.92200407791</v>
+        <v>77654.56799575489</v>
       </c>
     </row>
     <row r="6">
@@ -8252,28 +8252,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.84555201200931</v>
+        <v>61.49142927801373</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.20088329336312</v>
+        <v>84.1352863485466</v>
       </c>
       <c r="AC6" t="n">
-        <v>61.69188671240025</v>
+        <v>76.10553270407722</v>
       </c>
       <c r="AD6" t="n">
-        <v>49845.55201200931</v>
+        <v>61491.42927801373</v>
       </c>
       <c r="AE6" t="n">
-        <v>68200.88329336312</v>
+        <v>84135.28634854659</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4465431082842e-06</v>
+        <v>1.816289754134425e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.680208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>61691.88671240026</v>
+        <v>76105.53270407722</v>
       </c>
     </row>
   </sheetData>
@@ -8549,28 +8549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.715671153085</v>
+        <v>216.9013820318238</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.682083286899</v>
+        <v>296.7740399094318</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.5166353382026</v>
+        <v>268.4503420655442</v>
       </c>
       <c r="AD2" t="n">
-        <v>192715.671153085</v>
+        <v>216901.3820318238</v>
       </c>
       <c r="AE2" t="n">
-        <v>263682.083286899</v>
+        <v>296774.0399094318</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.034040011025165e-06</v>
+        <v>7.515110573029821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>238516.6353382026</v>
+        <v>268450.3420655442</v>
       </c>
     </row>
     <row r="3">
@@ -8655,28 +8655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.38440172139303</v>
+        <v>101.3920058147418</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.2996817966553</v>
+        <v>138.7290154552724</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.627571814696</v>
+        <v>125.4889129276546</v>
       </c>
       <c r="AD3" t="n">
-        <v>89384.40172139303</v>
+        <v>101392.0058147418</v>
       </c>
       <c r="AE3" t="n">
-        <v>122299.6817966553</v>
+        <v>138729.0154552725</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.963582718699985e-06</v>
+        <v>1.297262644208899e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>110627.571814696</v>
+        <v>125488.9129276546</v>
       </c>
     </row>
     <row r="4">
@@ -8761,28 +8761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.84979297007381</v>
+        <v>76.94264840944319</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.73034771257034</v>
+        <v>105.2763260238367</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.26204786072915</v>
+        <v>95.22890122439995</v>
       </c>
       <c r="AD4" t="n">
-        <v>64849.7929700738</v>
+        <v>76942.64840944319</v>
       </c>
       <c r="AE4" t="n">
-        <v>88730.34771257034</v>
+        <v>105276.3260238367</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.016171148653622e-06</v>
+        <v>1.493351885202401e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.910416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>80262.04786072916</v>
+        <v>95228.90122439995</v>
       </c>
     </row>
     <row r="5">
@@ -8867,28 +8867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.97751434339174</v>
+        <v>72.07036978276113</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.06388114578468</v>
+        <v>98.60985945705106</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.2318195066308</v>
+        <v>89.19867287030158</v>
       </c>
       <c r="AD5" t="n">
-        <v>59977.51434339174</v>
+        <v>72070.36978276113</v>
       </c>
       <c r="AE5" t="n">
-        <v>82063.88114578468</v>
+        <v>98609.85945705106</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.51084947756729e-06</v>
+        <v>1.585506705920778e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>74231.8195066308</v>
+        <v>89198.67287030158</v>
       </c>
     </row>
     <row r="6">
@@ -8973,28 +8973,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.4698697211073</v>
+        <v>68.56272516047669</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.26456702721822</v>
+        <v>93.8105453384846</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.89054519165913</v>
+        <v>84.85739855532994</v>
       </c>
       <c r="AD6" t="n">
-        <v>56469.8697211073</v>
+        <v>68562.72516047669</v>
       </c>
       <c r="AE6" t="n">
-        <v>77264.56702721822</v>
+        <v>93810.5453384846</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.86141818628613e-06</v>
+        <v>1.650814997416797e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.728125</v>
       </c>
       <c r="AH6" t="n">
-        <v>69890.54519165913</v>
+        <v>84857.39855532994</v>
       </c>
     </row>
     <row r="7">
@@ -9079,28 +9079,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>54.12796080095407</v>
+        <v>66.22081624032344</v>
       </c>
       <c r="AB7" t="n">
-        <v>74.06026392493642</v>
+        <v>90.60624223620282</v>
       </c>
       <c r="AC7" t="n">
-        <v>66.99205628019041</v>
+        <v>81.95890964386123</v>
       </c>
       <c r="AD7" t="n">
-        <v>54127.96080095407</v>
+        <v>66220.81624032345</v>
       </c>
       <c r="AE7" t="n">
-        <v>74060.26392493641</v>
+        <v>90606.24223620282</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.079494274805446e-06</v>
+        <v>1.691440918678793e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>66992.05628019042</v>
+        <v>81958.90964386123</v>
       </c>
     </row>
     <row r="8">
@@ -9185,28 +9185,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>53.47342691787011</v>
+        <v>65.56628235723949</v>
       </c>
       <c r="AB8" t="n">
-        <v>73.16470179010442</v>
+        <v>89.71068010137081</v>
       </c>
       <c r="AC8" t="n">
-        <v>66.18196533857717</v>
+        <v>81.14881870224795</v>
       </c>
       <c r="AD8" t="n">
-        <v>53473.42691787011</v>
+        <v>65566.28235723948</v>
       </c>
       <c r="AE8" t="n">
-        <v>73164.70179010442</v>
+        <v>89710.68010137082</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.133314806429228e-06</v>
+        <v>1.701467275510816e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.677083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>66181.96533857717</v>
+        <v>81148.81870224795</v>
       </c>
     </row>
   </sheetData>
@@ -9482,28 +9482,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.82466159364034</v>
+        <v>97.85989373672867</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.7973324261014</v>
+        <v>133.89622388435</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.4594817524885</v>
+        <v>121.1173562013939</v>
       </c>
       <c r="AD2" t="n">
-        <v>86824.66159364034</v>
+        <v>97859.89373672867</v>
       </c>
       <c r="AE2" t="n">
-        <v>118797.3324261014</v>
+        <v>133896.22388435</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.668260966748314e-06</v>
+        <v>1.336651147005908e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.485416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107459.4817524885</v>
+        <v>121117.3562013939</v>
       </c>
     </row>
     <row r="3">
@@ -9588,28 +9588,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.55790295606477</v>
+        <v>62.67838644517367</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.54379739861068</v>
+        <v>85.75933350950849</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.81119638374434</v>
+        <v>77.57458308336196</v>
       </c>
       <c r="AD3" t="n">
-        <v>51557.90295606478</v>
+        <v>62678.38644517367</v>
       </c>
       <c r="AE3" t="n">
-        <v>70543.79739861068</v>
+        <v>85759.33350950849</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.026715228415547e-06</v>
+        <v>1.809402679937547e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.835416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>63811.19638374434</v>
+        <v>77574.58308336195</v>
       </c>
     </row>
     <row r="4">
@@ -9694,28 +9694,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.18218124640994</v>
+        <v>57.30266473551883</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.18849779536072</v>
+        <v>78.40403390625853</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.15787625139838</v>
+        <v>70.921262951016</v>
       </c>
       <c r="AD4" t="n">
-        <v>46182.18124640994</v>
+        <v>57302.66473551883</v>
       </c>
       <c r="AE4" t="n">
-        <v>63188.49779536072</v>
+        <v>78404.03390625853</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.775852571969746e-06</v>
+        <v>1.959567062303489e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.694791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>57157.87625139838</v>
+        <v>70921.262951016</v>
       </c>
     </row>
     <row r="5">
@@ -9800,28 +9800,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.29882315602642</v>
+        <v>57.41930664513531</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.34809240197578</v>
+        <v>78.56362851287359</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.3022393727506</v>
+        <v>71.0656260723682</v>
       </c>
       <c r="AD5" t="n">
-        <v>46298.82315602642</v>
+        <v>57419.30664513532</v>
       </c>
       <c r="AE5" t="n">
-        <v>63348.09240197578</v>
+        <v>78563.62851287359</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.768693688882056e-06</v>
+        <v>1.958132066082111e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.696875</v>
       </c>
       <c r="AH5" t="n">
-        <v>57302.2393727506</v>
+        <v>71065.62607236821</v>
       </c>
     </row>
   </sheetData>
@@ -10097,28 +10097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.36370516305035</v>
+        <v>77.92370282390169</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.16999328097774</v>
+        <v>106.6186479547643</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.37341848366172</v>
+        <v>96.44311383420089</v>
       </c>
       <c r="AD2" t="n">
-        <v>67363.70516305036</v>
+        <v>77923.70282390169</v>
       </c>
       <c r="AE2" t="n">
-        <v>92169.99328097774</v>
+        <v>106618.6479547643</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.029066184592853e-06</v>
+        <v>1.679730857924238e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>83373.41848366172</v>
+        <v>96443.11383420089</v>
       </c>
     </row>
     <row r="3">
@@ -10203,28 +10203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.37831995535622</v>
+        <v>54.02356896222812</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.35213107931293</v>
+        <v>73.91743040574875</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.68764699035447</v>
+        <v>66.86285459160588</v>
       </c>
       <c r="AD3" t="n">
-        <v>43378.31995535622</v>
+        <v>54023.56896222812</v>
       </c>
       <c r="AE3" t="n">
-        <v>59352.13107931292</v>
+        <v>73917.43040574875</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.936447906015811e-06</v>
+        <v>2.078767042413887e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.7375</v>
       </c>
       <c r="AH3" t="n">
-        <v>53687.64699035446</v>
+        <v>66862.85459160588</v>
       </c>
     </row>
     <row r="4">
@@ -10309,28 +10309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.57259955229318</v>
+        <v>54.21784855916508</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.61795299485284</v>
+        <v>74.18325232128866</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.92809923535874</v>
+        <v>67.10330683661016</v>
       </c>
       <c r="AD4" t="n">
-        <v>43572.59955229318</v>
+        <v>54217.84855916508</v>
       </c>
       <c r="AE4" t="n">
-        <v>59617.95299485284</v>
+        <v>74183.25232128866</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.926504995217777e-06</v>
+        <v>2.076686923294045e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.738541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>53928.09923535874</v>
+        <v>67103.30683661017</v>
       </c>
     </row>
   </sheetData>
@@ -18227,28 +18227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.45797218983789</v>
+        <v>55.72335739273175</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.19760301431068</v>
+        <v>76.24315592573572</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.26155107752187</v>
+        <v>68.96661613214229</v>
       </c>
       <c r="AD2" t="n">
-        <v>45457.97218983789</v>
+        <v>55723.35739273175</v>
       </c>
       <c r="AE2" t="n">
-        <v>62197.60301431068</v>
+        <v>76243.15592573571</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.213221791079836e-06</v>
+        <v>2.002821534950952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.938541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>56261.55107752187</v>
+        <v>68966.6161321423</v>
       </c>
     </row>
     <row r="3">
@@ -18333,28 +18333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.40969643613371</v>
+        <v>51.67508163903094</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.65857353061376</v>
+        <v>70.70412644220353</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.25115879377093</v>
+        <v>63.95622384843997</v>
       </c>
       <c r="AD3" t="n">
-        <v>41409.69643613372</v>
+        <v>51675.08163903093</v>
       </c>
       <c r="AE3" t="n">
-        <v>56658.57353061376</v>
+        <v>70704.12644220353</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.978976033162888e-06</v>
+        <v>2.16928546269541e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.789583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>51251.15879377093</v>
+        <v>63956.22384843997</v>
       </c>
     </row>
   </sheetData>
@@ -18630,28 +18630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.99097144650482</v>
+        <v>57.41809744152467</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.66336434532104</v>
+        <v>78.56197402714723</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.3965450113283</v>
+        <v>71.06412948843749</v>
       </c>
       <c r="AD2" t="n">
-        <v>47990.97144650482</v>
+        <v>57418.09744152467</v>
       </c>
       <c r="AE2" t="n">
-        <v>65663.36434532104</v>
+        <v>78561.97402714723</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.375262538745381e-06</v>
+        <v>2.229931473851361e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.044791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>59396.5450113283</v>
+        <v>71064.12948843748</v>
       </c>
     </row>
   </sheetData>
@@ -18927,28 +18927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.8656885651214</v>
+        <v>134.8268603128566</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.0595702606065</v>
+        <v>184.4760584212474</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.4517796954322</v>
+        <v>166.8699223193495</v>
       </c>
       <c r="AD2" t="n">
-        <v>111865.6885651214</v>
+        <v>134826.8603128566</v>
       </c>
       <c r="AE2" t="n">
-        <v>153059.5702606065</v>
+        <v>184476.0584212473</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.56654539876291e-06</v>
+        <v>1.080231662225214e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.879166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>138451.7796954321</v>
+        <v>166869.9223193495</v>
       </c>
     </row>
     <row r="3">
@@ -19033,28 +19033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.65907211247272</v>
+        <v>72.18232841362615</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.99641855364747</v>
+        <v>98.76304619506671</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.07535685311194</v>
+        <v>89.33723968103999</v>
       </c>
       <c r="AD3" t="n">
-        <v>60659.07211247272</v>
+        <v>72182.32841362615</v>
       </c>
       <c r="AE3" t="n">
-        <v>82996.41855364747</v>
+        <v>98763.04619506671</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.160019780169573e-06</v>
+        <v>1.583515645607086e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.964583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>75075.35685311194</v>
+        <v>89337.23968104</v>
       </c>
     </row>
     <row r="4">
@@ -19139,28 +19139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.09327717763713</v>
+        <v>64.61653347879056</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.64456414449504</v>
+        <v>88.41119178591427</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.71146889984681</v>
+        <v>79.9733517277749</v>
       </c>
       <c r="AD4" t="n">
-        <v>53093.27717763714</v>
+        <v>64616.53347879056</v>
       </c>
       <c r="AE4" t="n">
-        <v>72644.56414449503</v>
+        <v>88411.19178591427</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.046155583344948e-06</v>
+        <v>1.75547722735115e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.771875</v>
       </c>
       <c r="AH4" t="n">
-        <v>65711.4688998468</v>
+        <v>79973.35172777489</v>
       </c>
     </row>
     <row r="5">
@@ -19245,28 +19245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.16363422437441</v>
+        <v>60.68689052552784</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.26785329223198</v>
+        <v>83.03448093365121</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.84790378506093</v>
+        <v>75.109786612989</v>
       </c>
       <c r="AD5" t="n">
-        <v>49163.63422437441</v>
+        <v>60686.89052552784</v>
       </c>
       <c r="AE5" t="n">
-        <v>67267.85329223197</v>
+        <v>83034.48093365121</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.513765707646037e-06</v>
+        <v>1.846220628448599e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.684375</v>
       </c>
       <c r="AH5" t="n">
-        <v>60847.90378506093</v>
+        <v>75109.786612989</v>
       </c>
     </row>
     <row r="6">
@@ -19351,28 +19351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.88870283826682</v>
+        <v>60.41195913942023</v>
       </c>
       <c r="AB6" t="n">
-        <v>66.89168004064301</v>
+        <v>82.65830768206224</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.50763198064102</v>
+        <v>74.7695148085691</v>
       </c>
       <c r="AD6" t="n">
-        <v>48888.70283826681</v>
+        <v>60411.95913942024</v>
       </c>
       <c r="AE6" t="n">
-        <v>66891.68004064301</v>
+        <v>82658.30768206224</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.55238701110098e-06</v>
+        <v>1.853715394383269e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.678125</v>
       </c>
       <c r="AH6" t="n">
-        <v>60507.63198064102</v>
+        <v>74769.5148085691</v>
       </c>
     </row>
   </sheetData>
@@ -19648,28 +19648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.9941109450579</v>
+        <v>197.9677723533066</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.0664186733445</v>
+        <v>270.8682398553905</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.3456938035465</v>
+        <v>245.0169552096336</v>
       </c>
       <c r="AD2" t="n">
-        <v>173994.1109450579</v>
+        <v>197967.7723533066</v>
       </c>
       <c r="AE2" t="n">
-        <v>238066.4186733445</v>
+        <v>270868.2398553905</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.330483812023345e-06</v>
+        <v>8.125686173748784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215345.6938035465</v>
+        <v>245016.9552096336</v>
       </c>
     </row>
     <row r="3">
@@ -19754,28 +19754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.63681830550492</v>
+        <v>97.53839766360866</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.1720728353279</v>
+        <v>133.4563387737017</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.9893346559917</v>
+        <v>120.719453108323</v>
       </c>
       <c r="AD3" t="n">
-        <v>85636.81830550492</v>
+        <v>97538.39766360866</v>
       </c>
       <c r="AE3" t="n">
-        <v>117172.0728353279</v>
+        <v>133456.3387737017</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.195429652464181e-06</v>
+        <v>1.350144828595772e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.146875</v>
       </c>
       <c r="AH3" t="n">
-        <v>105989.3346559917</v>
+        <v>120719.453108323</v>
       </c>
     </row>
     <row r="4">
@@ -19860,28 +19860,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.44004539878934</v>
+        <v>74.42687610291365</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.43322477498077</v>
+        <v>101.8341353660037</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.27959770876096</v>
+        <v>92.11522841180451</v>
       </c>
       <c r="AD4" t="n">
-        <v>62440.04539878934</v>
+        <v>74426.87610291365</v>
       </c>
       <c r="AE4" t="n">
-        <v>85433.22477498077</v>
+        <v>101834.1353660037</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.208732616627967e-06</v>
+        <v>1.540280209378485e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.88125</v>
       </c>
       <c r="AH4" t="n">
-        <v>77279.59770876096</v>
+        <v>92115.22841180451</v>
       </c>
     </row>
     <row r="5">
@@ -19966,28 +19966,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.70185123815495</v>
+        <v>69.68868194227926</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.95021849003059</v>
+        <v>95.35112908105354</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.41532044468789</v>
+        <v>86.25095114773143</v>
       </c>
       <c r="AD5" t="n">
-        <v>57701.85123815495</v>
+        <v>69688.68194227926</v>
       </c>
       <c r="AE5" t="n">
-        <v>78950.21849003059</v>
+        <v>95351.12908105354</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.720277133216357e-06</v>
+        <v>1.636266024962383e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.770833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>71415.3204446879</v>
+        <v>86250.95114773142</v>
       </c>
     </row>
     <row r="6">
@@ -20072,28 +20072,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.66591440912449</v>
+        <v>66.6527451132488</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.79631578447299</v>
+        <v>91.19722637549599</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.65786038330836</v>
+        <v>82.49349108635191</v>
       </c>
       <c r="AD6" t="n">
-        <v>54665.91440912449</v>
+        <v>66652.74511324879</v>
       </c>
       <c r="AE6" t="n">
-        <v>74796.315784473</v>
+        <v>91197.22637549599</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.010893728147734e-06</v>
+        <v>1.69079709700425e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.713541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>67657.86038330836</v>
+        <v>82493.4910863519</v>
       </c>
     </row>
     <row r="7">
@@ -20178,28 +20178,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>52.71474817808524</v>
+        <v>64.70157888220953</v>
       </c>
       <c r="AB7" t="n">
-        <v>72.12664406778751</v>
+        <v>88.52755465881047</v>
       </c>
       <c r="AC7" t="n">
-        <v>65.24297838835469</v>
+        <v>80.07860909139822</v>
       </c>
       <c r="AD7" t="n">
-        <v>52714.74817808524</v>
+        <v>64701.57888220953</v>
       </c>
       <c r="AE7" t="n">
-        <v>72126.64406778751</v>
+        <v>88527.55465881048</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.19920141976143e-06</v>
+        <v>1.726131005929337e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.679166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>65242.97838835468</v>
+        <v>80078.60909139822</v>
       </c>
     </row>
     <row r="8">
@@ -20284,28 +20284,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>52.70081271287185</v>
+        <v>64.68764341699615</v>
       </c>
       <c r="AB8" t="n">
-        <v>72.10757694949324</v>
+        <v>88.50848754051619</v>
       </c>
       <c r="AC8" t="n">
-        <v>65.22573100906953</v>
+        <v>80.06136171211307</v>
       </c>
       <c r="AD8" t="n">
-        <v>52700.81271287185</v>
+        <v>64687.64341699615</v>
       </c>
       <c r="AE8" t="n">
-        <v>72107.57694949323</v>
+        <v>88508.48754051619</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.205577191997169e-06</v>
+        <v>1.727327350877194e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.678125</v>
       </c>
       <c r="AH8" t="n">
-        <v>65225.73100906953</v>
+        <v>80061.36171211307</v>
       </c>
     </row>
   </sheetData>
@@ -20581,28 +20581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.92950774096186</v>
+        <v>56.00444935817455</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.2110228749242</v>
+        <v>76.62775835375668</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.08281297249162</v>
+        <v>69.31451264422597</v>
       </c>
       <c r="AD2" t="n">
-        <v>46929.50774096186</v>
+        <v>56004.44935817455</v>
       </c>
       <c r="AE2" t="n">
-        <v>64211.02287492419</v>
+        <v>76627.75835375668</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.514096832466457e-06</v>
+        <v>2.129311004717744e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.33125</v>
       </c>
       <c r="AH2" t="n">
-        <v>58082.81297249162</v>
+        <v>69314.51264422596</v>
       </c>
     </row>
   </sheetData>
@@ -20878,28 +20878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.41260094726441</v>
+        <v>84.14129657558661</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.4463593513833</v>
+        <v>115.1258340266925</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.85989979226315</v>
+        <v>104.1383860073376</v>
       </c>
       <c r="AD2" t="n">
-        <v>73412.60094726441</v>
+        <v>84141.2965755866</v>
       </c>
       <c r="AE2" t="n">
-        <v>100446.3593513833</v>
+        <v>115125.8340266925</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.53530341762581e-06</v>
+        <v>1.551732567982565e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.257291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90859.89979226315</v>
+        <v>104138.3860073376</v>
       </c>
     </row>
     <row r="3">
@@ -20984,28 +20984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.57656212908299</v>
+        <v>56.39050910342576</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.35986300100462</v>
+        <v>77.15598232896303</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.40832519881912</v>
+        <v>69.79232366460579</v>
       </c>
       <c r="AD3" t="n">
-        <v>45576.56212908299</v>
+        <v>56390.50910342576</v>
       </c>
       <c r="AE3" t="n">
-        <v>62359.86300100462</v>
+        <v>77155.98232896303</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.705067124933244e-06</v>
+        <v>1.998548419031116e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.753125</v>
       </c>
       <c r="AH3" t="n">
-        <v>56408.32519881912</v>
+        <v>69792.32366460579</v>
       </c>
     </row>
     <row r="4">
@@ -21090,28 +21090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.36437737403563</v>
+        <v>55.17832434837841</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.70129834133253</v>
+        <v>75.49741766929095</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.9080516224555</v>
+        <v>68.29205008824218</v>
       </c>
       <c r="AD4" t="n">
-        <v>44364.37737403563</v>
+        <v>55178.32434837841</v>
       </c>
       <c r="AE4" t="n">
-        <v>60701.29834133253</v>
+        <v>75497.41766929095</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.89727092439895e-06</v>
+        <v>2.038128629513855e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>54908.0516224555</v>
+        <v>68292.05008824218</v>
       </c>
     </row>
   </sheetData>
@@ -21387,28 +21387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.32221422052736</v>
+        <v>105.6688624038724</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.0558146988805</v>
+        <v>144.5807993221142</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.7389088750271</v>
+        <v>130.782210755277</v>
       </c>
       <c r="AD2" t="n">
-        <v>94322.21422052736</v>
+        <v>105668.8624038724</v>
       </c>
       <c r="AE2" t="n">
-        <v>129055.8146988805</v>
+        <v>144580.7993221142</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.281044936487574e-06</v>
+        <v>1.244390643356316e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.607291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>116738.9088750271</v>
+        <v>130782.210755277</v>
       </c>
     </row>
     <row r="3">
@@ -21493,28 +21493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.60386122310855</v>
+        <v>65.86516855188194</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.71141187777269</v>
+        <v>90.11962937880871</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.58105958630011</v>
+        <v>81.51873843461124</v>
       </c>
       <c r="AD3" t="n">
-        <v>54603.86122310854</v>
+        <v>65865.16855188194</v>
       </c>
       <c r="AE3" t="n">
-        <v>74711.41187777268</v>
+        <v>90119.62937880871</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.713751026657091e-06</v>
+        <v>1.726354508804433e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.879166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>67581.05958630011</v>
+        <v>81518.73843461124</v>
       </c>
     </row>
     <row r="4">
@@ -21599,28 +21599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.16535423358581</v>
+        <v>59.42666156235921</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.90196256783075</v>
+        <v>81.31018006886677</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.61237175435647</v>
+        <v>73.55005060266758</v>
       </c>
       <c r="AD4" t="n">
-        <v>48165.35423358581</v>
+        <v>59426.66156235922</v>
       </c>
       <c r="AE4" t="n">
-        <v>65901.96256783075</v>
+        <v>81310.18006886677</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.564168349847611e-06</v>
+        <v>1.894837837713427e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.7125</v>
       </c>
       <c r="AH4" t="n">
-        <v>59612.37175435646</v>
+        <v>73550.05060266759</v>
       </c>
     </row>
     <row r="5">
@@ -21705,28 +21705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.23565288193589</v>
+        <v>58.4969602107093</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.62990416297507</v>
+        <v>80.0381216640111</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.46171681831461</v>
+        <v>72.39939566662576</v>
       </c>
       <c r="AD5" t="n">
-        <v>47235.65288193589</v>
+        <v>58496.96021070929</v>
       </c>
       <c r="AE5" t="n">
-        <v>64629.90416297507</v>
+        <v>80038.12166401109</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.678154772349577e-06</v>
+        <v>1.917420646635413e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.691666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>58461.71681831461</v>
+        <v>72399.39566662576</v>
       </c>
     </row>
   </sheetData>
